--- a/Evaluation/eval003/sub1028/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub1028/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.90625</v>
+        <v>0.9081632653061225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8613861386138614</v>
+        <v>0.8811881188118812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.883248730964467</v>
+        <v>0.8944723618090452</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C3" t="n">
         <v>0.9108910891089109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8975609756097561</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8960396039603961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8960396039603961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8960396039603961</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8960396039603961</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8870872641509434</v>
+        <v>0.8963893249607535</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8960396039603961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8860688099266779</v>
+        <v>0.8960166687094007</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8870872641509434</v>
+        <v>0.8963893249607535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8861386138613861</v>
+        <v>0.8960396039603961</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8860688099266779</v>
+        <v>0.8960166687094007</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
